--- a/FileStructure/UpdateAlgorithm/UpdateAlogrithm.xlsx
+++ b/FileStructure/UpdateAlgorithm/UpdateAlogrithm.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="10755" windowHeight="8280"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="10755" windowHeight="8280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Transaction" sheetId="1" r:id="rId1"/>
     <sheet name="OldMaster" sheetId="2" r:id="rId2"/>
+    <sheet name="NewMaster" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,18 +38,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FIRST NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AGE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FAMILY NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Agatha</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,13 +152,110 @@
   <si>
     <t>Kan</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIRST_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAMILY_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>FIRST_NAME</t>
+  </si>
+  <si>
+    <t>FAMILY_NAME</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>Dorothy</t>
+  </si>
+  <si>
+    <t>Kwon</t>
+  </si>
+  <si>
+    <t>Myung</t>
+  </si>
+  <si>
+    <t>Margarida</t>
+  </si>
+  <si>
+    <t>Martina</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Michel</t>
+  </si>
+  <si>
+    <t>Verdi</t>
+  </si>
+  <si>
+    <t>Francis</t>
+  </si>
+  <si>
+    <t>Van</t>
+  </si>
+  <si>
+    <t>Lucy</t>
+  </si>
+  <si>
+    <t>Ryu</t>
+  </si>
+  <si>
+    <t>Floerence</t>
+  </si>
+  <si>
+    <t>La</t>
+  </si>
+  <si>
+    <t>Cordelia</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>Hong</t>
+  </si>
+  <si>
+    <t>Aliean</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Seo</t>
+  </si>
+  <si>
+    <t>Aileen</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Jammy</t>
+  </si>
+  <si>
+    <t>Kan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,18 +599,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="4.625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.25" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -531,13 +621,13 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -561,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -570,35 +660,43 @@
         <v>33</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
         <v>31</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6">
-        <v>23</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -611,15 +709,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.25" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -627,13 +725,13 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -641,10 +739,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -655,10 +753,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>14</v>
@@ -669,10 +767,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -683,10 +781,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>23</v>
@@ -697,10 +795,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>34</v>
@@ -711,10 +809,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>25</v>
@@ -725,10 +823,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>42</v>
@@ -739,10 +837,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>31</v>
@@ -753,10 +851,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>21</v>
@@ -767,10 +865,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>22</v>
@@ -781,10 +879,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -795,10 +893,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>20</v>
@@ -808,4 +906,199 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="n">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/FileStructure/UpdateAlgorithm/UpdateAlogrithm.xlsx
+++ b/FileStructure/UpdateAlgorithm/UpdateAlogrithm.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="10755" windowHeight="8280" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="17610" windowHeight="5100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Transaction" sheetId="1" r:id="rId1"/>
     <sheet name="OldMaster" sheetId="2" r:id="rId2"/>
     <sheet name="NewMaster" r:id="rId6" sheetId="3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +166,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yoo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>KEY</t>
   </si>
   <si>
@@ -184,12 +204,12 @@
     <t>Kwon</t>
   </si>
   <si>
+    <t>Margarida</t>
+  </si>
+  <si>
     <t>Myung</t>
   </si>
   <si>
-    <t>Margarida</t>
-  </si>
-  <si>
     <t>Martina</t>
   </si>
   <si>
@@ -199,7 +219,7 @@
     <t>Michel</t>
   </si>
   <si>
-    <t>Verdi</t>
+    <t>Yoo</t>
   </si>
   <si>
     <t>Francis</t>
@@ -226,10 +246,10 @@
     <t>Na</t>
   </si>
   <si>
+    <t>Aliean</t>
+  </si>
+  <si>
     <t>Hong</t>
-  </si>
-  <si>
-    <t>Aliean</t>
   </si>
   <si>
     <t>Angela</t>
@@ -599,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -699,6 +719,47 @@
         <v>4</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -707,10 +768,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -902,6 +963,11 @@
         <v>20</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -912,22 +978,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -935,10 +1003,10 @@
         <v>2.0</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D2" t="n">
         <v>14.0</v>
@@ -949,10 +1017,10 @@
         <v>3.0</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n">
         <v>20.0</v>
@@ -963,10 +1031,10 @@
         <v>4.0</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D4" t="n">
         <v>23.0</v>
@@ -977,13 +1045,13 @@
         <v>5.0</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D5" t="n">
-        <v>34.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="6">
@@ -991,10 +1059,10 @@
         <v>6.0</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D6" t="n">
         <v>25.0</v>
@@ -1005,10 +1073,10 @@
         <v>7.0</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D7" t="n">
         <v>42.0</v>
@@ -1019,10 +1087,10 @@
         <v>8.0</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D8" t="n">
         <v>31.0</v>
@@ -1033,10 +1101,10 @@
         <v>9.0</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D9" t="n">
         <v>21.0</v>
@@ -1047,10 +1115,10 @@
         <v>10.0</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D10" t="n">
         <v>22.0</v>
@@ -1061,10 +1129,10 @@
         <v>11.0</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D11" t="n">
         <v>10.0</v>
@@ -1075,10 +1143,10 @@
         <v>12.0</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D12" t="n">
         <v>20.0</v>
@@ -1089,14 +1157,22 @@
         <v>15.0</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D13" t="n">
         <v>23.0</v>
       </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/FileStructure/UpdateAlgorithm/UpdateAlogrithm.xlsx
+++ b/FileStructure/UpdateAlgorithm/UpdateAlogrithm.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="Transaction" sheetId="1" r:id="rId1"/>
     <sheet name="OldMaster" sheetId="2" r:id="rId2"/>
-    <sheet name="NewMaster" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,98 +183,13 @@
   <si>
     <t>U</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEY</t>
-  </si>
-  <si>
-    <t>FIRST_NAME</t>
-  </si>
-  <si>
-    <t>FAMILY_NAME</t>
-  </si>
-  <si>
-    <t>AGE</t>
-  </si>
-  <si>
-    <t>Dorothy</t>
-  </si>
-  <si>
-    <t>Kwon</t>
-  </si>
-  <si>
-    <t>Margarida</t>
-  </si>
-  <si>
-    <t>Myung</t>
-  </si>
-  <si>
-    <t>Martina</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>Michel</t>
-  </si>
-  <si>
-    <t>Yoo</t>
-  </si>
-  <si>
-    <t>Francis</t>
-  </si>
-  <si>
-    <t>Van</t>
-  </si>
-  <si>
-    <t>Lucy</t>
-  </si>
-  <si>
-    <t>Ryu</t>
-  </si>
-  <si>
-    <t>Floerence</t>
-  </si>
-  <si>
-    <t>La</t>
-  </si>
-  <si>
-    <t>Cordelia</t>
-  </si>
-  <si>
-    <t>Na</t>
-  </si>
-  <si>
-    <t>Aliean</t>
-  </si>
-  <si>
-    <t>Hong</t>
-  </si>
-  <si>
-    <t>Angela</t>
-  </si>
-  <si>
-    <t>Seo</t>
-  </si>
-  <si>
-    <t>Aileen</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>Jammy</t>
-  </si>
-  <si>
-    <t>Kan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,10 +541,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="4.625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.25" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.125" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="4.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -771,14 +685,14 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="4.625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.25" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.125" collapsed="true"/>
+    <col min="1" max="1" width="4.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -972,209 +886,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" t="n">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="n">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" t="n">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" t="n">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" t="n">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" t="n">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" t="n">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/FileStructure/UpdateAlgorithm/UpdateAlogrithm.xlsx
+++ b/FileStructure/UpdateAlgorithm/UpdateAlogrithm.xlsx
@@ -4,39 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="17610" windowHeight="5100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="17610" windowHeight="5100" tabRatio="593"/>
   </bookViews>
   <sheets>
-    <sheet name="Transaction" sheetId="1" r:id="rId1"/>
-    <sheet name="OldMaster" sheetId="2" r:id="rId2"/>
+    <sheet name="OldMaster" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UPDATE_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AGE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,14 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Angela</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aileen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Verdi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,63 +100,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Seo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aliean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Little</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jammy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FIRST_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FAMILY_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yoo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,159 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="4.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -697,27 +471,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -725,13 +499,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>14</v>
@@ -739,13 +513,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -753,13 +527,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>23</v>
@@ -767,13 +541,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>34</v>
@@ -781,13 +555,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>25</v>
@@ -795,13 +569,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>42</v>
@@ -809,13 +583,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>31</v>
@@ -823,13 +597,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>21</v>
@@ -837,49 +611,16 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/FileStructure/UpdateAlgorithm/UpdateAlogrithm.xlsx
+++ b/FileStructure/UpdateAlgorithm/UpdateAlogrithm.xlsx
@@ -8,13 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="OldMaster" sheetId="2" r:id="rId1"/>
+    <sheet name="Transaction2014-04-02 00.04.32" r:id="rId5" sheetId="3"/>
+    <sheet name="Sorted_Tran2014-04-02 00.04.33" r:id="rId6" sheetId="4"/>
+    <sheet name="NewMaster2014-04-02 00.04.33" r:id="rId7" sheetId="5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="114">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,13 +109,287 @@
   <si>
     <t>FAMILY_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_CODE</t>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>FIRST_NAME</t>
+  </si>
+  <si>
+    <t>FAMILY_NAME</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>TIME_STAMP</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Dong</t>
+  </si>
+  <si>
+    <t>Ryu</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.816</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Han</t>
+  </si>
+  <si>
+    <t>Hong</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.820</t>
+  </si>
+  <si>
+    <t>Pea</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.822</t>
+  </si>
+  <si>
+    <t>Few</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.824</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.826</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.834</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.835</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.836</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.838</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.840</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.842</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.844</t>
+  </si>
+  <si>
+    <t>Bush</t>
+  </si>
+  <si>
+    <t>Cheon</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.845</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.848</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.849</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.851</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.852</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.853</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.855</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.857</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.858</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.859</t>
+  </si>
+  <si>
+    <t>Hekin</t>
+  </si>
+  <si>
+    <t>Kwon</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.860</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.861</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Ka</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.862</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.863</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.865</t>
+  </si>
+  <si>
+    <t>Albas</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.866</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.867</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.868</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.869</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.870</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.871</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.872</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.874</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.875</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.877</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.878</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.880</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.881</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.882</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.884</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.885</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.887</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.888</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.889</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.890</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.892</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.893</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.895</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.897</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.899</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.901</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.903</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.905</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.908</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.909</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.910</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.912</t>
+  </si>
+  <si>
+    <t>2014-04-02 00:04:32.913</t>
+  </si>
+  <si>
+    <t>Dorothy</t>
+  </si>
+  <si>
+    <t>Martina</t>
+  </si>
+  <si>
+    <t>Michel</t>
+  </si>
+  <si>
+    <t>Verdi</t>
+  </si>
+  <si>
+    <t>Amy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,9 +741,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.25" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -627,4 +904,2407 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="n">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="n">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="n">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="n">
+        <v>22.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>